--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7535" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="739">
   <si>
     <t>Property</t>
   </si>
@@ -868,12 +868,6 @@
     <t>Composition.subject.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Composition.subject.extension:unidentifiedPatient</t>
   </si>
   <si>
@@ -903,6 +897,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Composition.subject.extension:unidentifiedPatient.extension:gender</t>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7158,12 +7158,14 @@
         <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7230,7 +7232,7 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>82</v>
@@ -7244,13 +7246,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7272,13 +7274,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7361,10 +7363,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7476,10 +7478,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7487,7 +7489,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7505,10 +7507,10 @@
         <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7594,7 +7596,7 @@
         <v>287</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>288</v>
@@ -7622,10 +7624,10 @@
         <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -8175,7 +8177,7 @@
         <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>305</v>
@@ -8203,10 +8205,10 @@
         <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8756,7 +8758,7 @@
         <v>311</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>312</v>
@@ -8784,10 +8786,10 @@
         <v>137</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -24006,7 +24008,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>80</v>
@@ -25302,7 +25304,7 @@
         <v>92</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -21665,7 +21665,7 @@
         <v>92</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1288,7 +1288,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -2617,15 +2617,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="90.73828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="77.7890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.73828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="86.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2636,27 +2636,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.29296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="68.76171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7492,7 +7492,7 @@
         <v>284</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
+++ b/docs/StructureDefinition-BRConjuntoMinimoDados-1.1.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2617,15 +2617,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="86.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.4765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="82.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2636,27 +2636,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.078125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.8984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="68.76171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.3515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="65.5703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7262,7 +7262,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
